--- a/oil.xlsx
+++ b/oil.xlsx
@@ -427,14 +427,111 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>machine_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>serial_number</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>installation_date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>total_hours</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>30f91b45</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2026-01-21T18:54:04.981505</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2026-01-21T18:54:04.981512</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -445,14 +542,371 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>maintenance_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>machine_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>machine_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>maintenance_type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>maintenance_type_id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>last_date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>last_hours</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>next_date</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>next_hours</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>interval</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>interval_unit</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>remaining_days</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>remaining_hours</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>30f91b45_oil_change</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>30f91b45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>تغيير الزيت</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>oil_change</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>ساعات</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2026-01-21T18:54:04.981512</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>30f91b45_greasing</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>30f91b45</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>التشحيم</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>greasing</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>500</v>
+      </c>
+      <c r="J3" t="n">
+        <v>500</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ساعات</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2026-01-21T18:54:04.981512</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>30f91b45_filter_change</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>30f91b45</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>تغيير الفلتر</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>filter_change</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>ساعات</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2026-01-21T18:54:04.981512</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>30f91b45_inspection</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>30f91b45</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>فحص دوري</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>inspection</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>30</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>أيام</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>29</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2026-01-21T18:54:04.981512</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>30f91b45_calibration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>30f91b45</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>معايرة</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>calibration</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>أشهر</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2026-01-21T18:54:04.981512</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
